--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1595126.303728325</v>
+        <v>1591114.500996228</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140343</v>
+        <v>6432656.960140344</v>
       </c>
     </row>
     <row r="9">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>41.73462392892447</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>94.31545966559487</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.67193547967874</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.5088344028028</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
         <v>277.3339849899809</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>164.4412371596354</v>
+        <v>20.82457372017992</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.6322047413739</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>135.7759193773365</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>14.20381792030243</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>212.09072642059</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>149.7547543748878</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>186.6678620768387</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>348.609711412383</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.4990832126445</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>44.9775660304056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>226.1911431928368</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.211119789568956</v>
       </c>
       <c r="T23" t="n">
-        <v>14.50535606500073</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2563,16 +2563,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>368.0416899004489</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>161.2455389227902</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,16 +2794,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>182.0562592050071</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>51.66615329903178</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>15.10233213021352</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>33.65662357940616</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>317.9984036753895</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>115.2446013314476</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,7 +3441,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>13.92367466636362</v>
+        <v>28.15575163329471</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>250.8538209687441</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>53.19166523984775</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.612391572116</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>54.62677450705478</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7030512222169</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>172.9973259258925</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
-        <v>185.5928843158237</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>122.3474053316708</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>99.95530421387551</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>137.6911122266708</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
         <v>277.3339849899809</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>166.4960794927224</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>147.6978906502181</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>26.511052199615</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
@@ -4191,13 +4191,13 @@
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>236.9670292341947</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508.2042248976826</v>
+        <v>746.9684841031977</v>
       </c>
       <c r="C11" t="n">
-        <v>508.2042248976826</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="D11" t="n">
-        <v>84.91160408268286</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="E11" t="n">
-        <v>84.91160408268286</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F11" t="n">
-        <v>84.91160408268286</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G11" t="n">
-        <v>84.91160408268286</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5077,16 +5077,16 @@
         <v>2079.142258348449</v>
       </c>
       <c r="V11" t="n">
-        <v>1721.652843474698</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W11" t="n">
-        <v>1325.261493775045</v>
+        <v>1983.87411727209</v>
       </c>
       <c r="X11" t="n">
-        <v>913.5414949427923</v>
+        <v>1572.154118439837</v>
       </c>
       <c r="Y11" t="n">
-        <v>508.2042248976826</v>
+        <v>1166.816848394728</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333025</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>746.120851174024</v>
+        <v>438.2282902000126</v>
       </c>
       <c r="C13" t="n">
-        <v>746.120851174024</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="D13" t="n">
-        <v>582.8040783007947</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="E13" t="n">
-        <v>416.5958724536483</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I13" t="n">
         <v>42.75541829589046</v>
@@ -5205,13 +5205,13 @@
         <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>977.56884454457</v>
+        <v>601.1799509534051</v>
       </c>
       <c r="M13" t="n">
-        <v>1506.667145956214</v>
+        <v>1130.278252365049</v>
       </c>
       <c r="N13" t="n">
-        <v>1901.228790463881</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O13" t="n">
         <v>2003.682813232011</v>
@@ -5223,28 +5223,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S13" t="n">
-        <v>2015.549926033461</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T13" t="n">
-        <v>2015.549926033461</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.414587659743</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.703120267772</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W13" t="n">
-        <v>1178.850716440284</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X13" t="n">
-        <v>936.2868198860897</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.2868198860897</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.277305337662</v>
+        <v>1295.280650479912</v>
       </c>
       <c r="C14" t="n">
-        <v>1148.376575350962</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.376575350962</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3996354988194</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988194</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848319</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5293,37 +5293,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794522</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W14" t="n">
-        <v>1741.379565094869</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="X14" t="n">
-        <v>1575.277305337662</v>
+        <v>1700.617920525021</v>
       </c>
       <c r="Y14" t="n">
-        <v>1575.277305337662</v>
+        <v>1295.280650479912</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745211</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J15" t="n">
         <v>142.0237151377161</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283639</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838651</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180605</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P15" t="n">
         <v>1661.89523739668</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>851.9060523202885</v>
+        <v>431.6727907347109</v>
       </c>
       <c r="C16" t="n">
-        <v>679.9334891992045</v>
+        <v>259.7002276136269</v>
       </c>
       <c r="D16" t="n">
-        <v>516.6167163259752</v>
+        <v>259.7002276136269</v>
       </c>
       <c r="E16" t="n">
-        <v>350.4085104788288</v>
+        <v>259.7002276136269</v>
       </c>
       <c r="F16" t="n">
-        <v>178.5467362533892</v>
+        <v>87.83845338818733</v>
       </c>
       <c r="G16" t="n">
-        <v>178.5467362533892</v>
+        <v>87.83845338818733</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589045</v>
+        <v>87.83845338818733</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484803</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K16" t="n">
-        <v>413.7637441131362</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L16" t="n">
-        <v>899.647127896349</v>
+        <v>353.8973418393829</v>
       </c>
       <c r="M16" t="n">
-        <v>1428.745429307993</v>
+        <v>882.9956432510273</v>
       </c>
       <c r="N16" t="n">
-        <v>1588.472585890574</v>
+        <v>1395.523821234427</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658704</v>
+        <v>1875.680168305761</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>1960.249713953907</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
         <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098195</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.623659787754</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.488321414036</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V16" t="n">
-        <v>1559.488321414036</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.635917586549</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.072021032354</v>
+        <v>658.0155590449689</v>
       </c>
       <c r="Y16" t="n">
-        <v>1042.072021032354</v>
+        <v>431.6727907347109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1295.280650479912</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="C17" t="n">
-        <v>868.3799204932119</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="D17" t="n">
-        <v>445.0872996782122</v>
+        <v>1185.516166607828</v>
       </c>
       <c r="E17" t="n">
-        <v>445.0872996782122</v>
+        <v>759.5392267556859</v>
       </c>
       <c r="F17" t="n">
-        <v>445.0872996782122</v>
+        <v>334.4150449450862</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589046</v>
@@ -5515,13 +5515,13 @@
         <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
         <v>437.0691715610001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848317</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
@@ -5548,19 +5548,19 @@
         <v>1867.003122344157</v>
       </c>
       <c r="U17" t="n">
-        <v>1652.770065353662</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V17" t="n">
-        <v>1295.280650479912</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="W17" t="n">
-        <v>1295.280650479912</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="X17" t="n">
-        <v>1295.280650479912</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="Y17" t="n">
-        <v>1295.280650479912</v>
+        <v>1608.808787422828</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377161</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059643</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L18" t="n">
-        <v>496.065259128364</v>
+        <v>519.5225649727759</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282772</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236153</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.7469826734011</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C19" t="n">
-        <v>751.7744195523171</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="D19" t="n">
-        <v>588.4576466790878</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="E19" t="n">
-        <v>588.4576466790878</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="F19" t="n">
-        <v>416.5958724536483</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="G19" t="n">
         <v>251.2392550574695</v>
@@ -5673,25 +5673,25 @@
         <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L19" t="n">
-        <v>977.56884454457</v>
+        <v>275.9756251911621</v>
       </c>
       <c r="M19" t="n">
-        <v>1506.667145956214</v>
+        <v>698.2420836039702</v>
       </c>
       <c r="N19" t="n">
-        <v>1621.162401097735</v>
+        <v>1210.77026158737</v>
       </c>
       <c r="O19" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794523</v>
@@ -5703,22 +5703,22 @@
         <v>2137.770914794523</v>
       </c>
       <c r="T19" t="n">
-        <v>2137.770914794523</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U19" t="n">
-        <v>1949.217518757312</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.506051365341</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W19" t="n">
-        <v>1392.653647537854</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X19" t="n">
-        <v>1150.089750983659</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.7469826734011</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1925.631778790232</v>
+        <v>1253.956624011809</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.500757161562</v>
+        <v>1253.956624011809</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103615</v>
       </c>
       <c r="J20" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
         <v>1626.510864636164</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W20" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X20" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y20" t="n">
-        <v>1925.631778790232</v>
+        <v>1673.804988303339</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>918.093414295108</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C22" t="n">
-        <v>746.120851174024</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D22" t="n">
-        <v>582.8040783007947</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E22" t="n">
-        <v>416.5958724536483</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574695</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>88.18730317508803</v>
       </c>
       <c r="I22" t="n">
         <v>42.75541829589046</v>
@@ -5913,19 +5913,19 @@
         <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
-        <v>244.402851647335</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>708.2288136909375</v>
+        <v>601.1799509534051</v>
       </c>
       <c r="M22" t="n">
-        <v>1237.327115102582</v>
+        <v>1130.278252365049</v>
       </c>
       <c r="N22" t="n">
-        <v>1749.855293085982</v>
+        <v>1437.099088512675</v>
       </c>
       <c r="O22" t="n">
-        <v>1852.309315854112</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P22" t="n">
         <v>1936.878861502259</v>
@@ -5946,16 +5946,16 @@
         <v>1611.587689049647</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.111786834661</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W22" t="n">
-        <v>1108.259383007174</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.259383007174</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y22" t="n">
-        <v>1108.259383007174</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2163.697044928325</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.796314941625</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.503694126626</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E23" t="n">
-        <v>887.5267542744834</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G23" t="n">
         <v>60.07069108156194</v>
@@ -5989,25 +5989,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1239.634105008736</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>1553.746495278727</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>1848.186938279251</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2093.878631620213</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="T23" t="n">
-        <v>2988.882679264965</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="U23" t="n">
-        <v>2988.882679264965</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="V23" t="n">
-        <v>2988.882679264965</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="W23" t="n">
-        <v>2988.882679264965</v>
+        <v>2998.270796714896</v>
       </c>
       <c r="X23" t="n">
-        <v>2988.882679264965</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="Y23" t="n">
-        <v>2583.545409219855</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J24" t="n">
-        <v>316.3256816434197</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K24" t="n">
-        <v>464.1166360116679</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3672256340677</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M24" t="n">
-        <v>914.1974265895691</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N24" t="n">
-        <v>1166.822492223765</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O24" t="n">
-        <v>1394.314356246624</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P24" t="n">
-        <v>1573.755009897445</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q24" t="n">
-        <v>1685.594465388265</v>
+        <v>1791.049965673171</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6138,34 +6138,34 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431407</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
-        <v>132.763209885642</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K25" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L25" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1612.700559514469</v>
+        <v>1708.00026446313</v>
       </c>
       <c r="C26" t="n">
-        <v>1185.799829527769</v>
+        <v>1281.09953447643</v>
       </c>
       <c r="D26" t="n">
-        <v>762.5072087127692</v>
+        <v>857.8069136614306</v>
       </c>
       <c r="E26" t="n">
-        <v>762.5072087127692</v>
+        <v>431.8299738092882</v>
       </c>
       <c r="F26" t="n">
-        <v>337.3830269021693</v>
+        <v>431.8299738092882</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,52 +6226,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L26" t="n">
-        <v>1197.759246481001</v>
+        <v>1126.4144602346</v>
       </c>
       <c r="M26" t="n">
-        <v>1506.132097761818</v>
+        <v>1434.787311515417</v>
       </c>
       <c r="N26" t="n">
-        <v>1820.244488031809</v>
+        <v>1748.899701785409</v>
       </c>
       <c r="O26" t="n">
-        <v>2114.684931032333</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.376624373295</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q26" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2840.660272337905</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W26" t="n">
-        <v>2444.268922638252</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X26" t="n">
-        <v>2032.548923805999</v>
+        <v>2533.18589879977</v>
       </c>
       <c r="Y26" t="n">
-        <v>2032.548923805999</v>
+        <v>2127.84862875466</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965737</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M27" t="n">
         <v>1019.652926874475</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6384,25 +6384,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6411,25 +6411,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.615638271191</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="C29" t="n">
-        <v>739.714908284491</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D29" t="n">
-        <v>739.714908284491</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E29" t="n">
-        <v>739.714908284491</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F29" t="n">
         <v>739.714908284491</v>
@@ -6463,28 +6463,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>867.8308599910616</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L29" t="n">
-        <v>1140.346868514893</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649222</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2761.010686313834</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2403.521271440083</v>
+        <v>2422.384393071016</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.521271440083</v>
+        <v>2422.384393071016</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.80127260783</v>
+        <v>2010.664394238763</v>
       </c>
       <c r="Y29" t="n">
-        <v>1586.464002562721</v>
+        <v>2010.664394238763</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>103.7569689275355</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J30" t="n">
-        <v>182.7962937677995</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K30" t="n">
-        <v>330.5872481360477</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L30" t="n">
-        <v>536.8378377584474</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M30" t="n">
-        <v>780.6680387139488</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N30" t="n">
-        <v>1033.293104348144</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O30" t="n">
-        <v>1260.784968371003</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P30" t="n">
         <v>1679.210510182351</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6639,7 +6639,7 @@
         <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>903.6343932556357</v>
+        <v>1336.240981735404</v>
       </c>
       <c r="C32" t="n">
-        <v>903.6343932556357</v>
+        <v>909.3402517487041</v>
       </c>
       <c r="D32" t="n">
-        <v>903.6343932556357</v>
+        <v>486.0476309337044</v>
       </c>
       <c r="E32" t="n">
-        <v>477.6574534034933</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G32" t="n">
         <v>60.07069108156194</v>
@@ -6703,22 +6703,22 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542981</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.62967157813</v>
+        <v>1146.086407504068</v>
       </c>
       <c r="M32" t="n">
-        <v>1427.002522858947</v>
+        <v>1454.459258784885</v>
       </c>
       <c r="N32" t="n">
-        <v>1741.114913128938</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.555356129462</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P32" t="n">
-        <v>2281.247049470424</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2944.905897632023</v>
+        <v>2969.537964603949</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2969.537964603949</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>2969.537964603949</v>
       </c>
       <c r="V32" t="n">
-        <v>2117.083011832651</v>
+        <v>2969.537964603949</v>
       </c>
       <c r="W32" t="n">
-        <v>1720.691662132998</v>
+        <v>2573.146614904296</v>
       </c>
       <c r="X32" t="n">
-        <v>1308.971663300745</v>
+        <v>2161.426616072044</v>
       </c>
       <c r="Y32" t="n">
-        <v>903.6343932556357</v>
+        <v>1756.089346026934</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P33" t="n">
-        <v>1416.768316177413</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q33" t="n">
         <v>1791.049965673171</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K34" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L34" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1043.610144261839</v>
+        <v>2021.362226580939</v>
       </c>
       <c r="C35" t="n">
-        <v>1043.610144261839</v>
+        <v>1594.46149659424</v>
       </c>
       <c r="D35" t="n">
-        <v>722.3996354988195</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="E35" t="n">
-        <v>722.3996354988195</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="F35" t="n">
-        <v>722.3996354988195</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G35" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103615</v>
       </c>
       <c r="J35" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
         <v>1626.510864636164</v>
@@ -6958,31 +6958,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.94792342712</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V35" t="n">
-        <v>1463.458508553369</v>
+        <v>2021.362226580939</v>
       </c>
       <c r="W35" t="n">
-        <v>1463.458508553369</v>
+        <v>2021.362226580939</v>
       </c>
       <c r="X35" t="n">
-        <v>1463.458508553369</v>
+        <v>2021.362226580939</v>
       </c>
       <c r="Y35" t="n">
-        <v>1463.458508553369</v>
+        <v>2021.362226580939</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J36" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K36" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L36" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M36" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N36" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4987886378846</v>
+        <v>681.9733337221539</v>
       </c>
       <c r="C37" t="n">
-        <v>709.4987886378846</v>
+        <v>681.9733337221539</v>
       </c>
       <c r="D37" t="n">
-        <v>546.1820157646553</v>
+        <v>681.9733337221539</v>
       </c>
       <c r="E37" t="n">
-        <v>379.9738099175088</v>
+        <v>515.7651278750075</v>
       </c>
       <c r="F37" t="n">
-        <v>208.1120356920692</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589047</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>977.5688445445701</v>
+        <v>546.8461064955292</v>
       </c>
       <c r="M37" t="n">
-        <v>1506.667145956215</v>
+        <v>1075.944407907174</v>
       </c>
       <c r="N37" t="n">
-        <v>1621.162401097735</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O37" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S37" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>1976.771053098196</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.635714724478</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.924247332507</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W37" t="n">
-        <v>1140.07184350502</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X37" t="n">
-        <v>1126.007525660208</v>
+        <v>872.1393024342196</v>
       </c>
       <c r="Y37" t="n">
-        <v>899.6647573499502</v>
+        <v>872.1393024342196</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>800.6974388909227</v>
+        <v>1424.556573727466</v>
       </c>
       <c r="C38" t="n">
-        <v>373.7967089042228</v>
+        <v>1424.556573727466</v>
       </c>
       <c r="D38" t="n">
-        <v>373.7967089042228</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="E38" t="n">
-        <v>373.7967089042228</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="F38" t="n">
         <v>320.0677541164978</v>
@@ -7168,34 +7168,34 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072042</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610004</v>
+        <v>437.069171561</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794523</v>
@@ -7204,22 +7204,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.808787422829</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.808787422829</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="W38" t="n">
-        <v>1212.417437723175</v>
+        <v>1424.556573727466</v>
       </c>
       <c r="X38" t="n">
-        <v>800.6974388909227</v>
+        <v>1424.556573727466</v>
       </c>
       <c r="Y38" t="n">
-        <v>800.6974388909227</v>
+        <v>1424.556573727466</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,22 +7244,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I39" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J39" t="n">
-        <v>165.481020982128</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2719753503762</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5225649727761</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M39" t="n">
         <v>1002.337654088804</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.262669716467</v>
+        <v>845.4008954910277</v>
       </c>
       <c r="C40" t="n">
-        <v>845.2901065953833</v>
+        <v>673.4283323699436</v>
       </c>
       <c r="D40" t="n">
-        <v>681.9733337221541</v>
+        <v>510.1115594967143</v>
       </c>
       <c r="E40" t="n">
-        <v>515.7651278750076</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="F40" t="n">
-        <v>343.903353649568</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G40" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L40" t="n">
-        <v>977.5688445445701</v>
+        <v>353.8973418393829</v>
       </c>
       <c r="M40" t="n">
-        <v>1093.544903181524</v>
+        <v>882.9956432510273</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1395.523821234427</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>1875.680168305761</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>1960.249713953907</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S40" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.470641666704</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U40" t="n">
-        <v>1676.335303292986</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V40" t="n">
-        <v>1676.335303292986</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W40" t="n">
-        <v>1676.335303292986</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.771406738791</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.428638428533</v>
+        <v>900.5794555991638</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.8796001064903</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="C41" t="n">
-        <v>467.8796001064903</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="D41" t="n">
-        <v>467.8796001064903</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>1891.674698433476</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>1633.480363512147</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V41" t="n">
-        <v>1275.990948638396</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W41" t="n">
-        <v>879.599598938743</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="X41" t="n">
-        <v>467.8796001064903</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.8796001064903</v>
+        <v>1598.06960576594</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>487.5547093938034</v>
+        <v>679.9334891992045</v>
       </c>
       <c r="C43" t="n">
-        <v>315.5821462727195</v>
+        <v>679.9334891992045</v>
       </c>
       <c r="D43" t="n">
-        <v>315.5821462727195</v>
+        <v>516.6167163259752</v>
       </c>
       <c r="E43" t="n">
-        <v>214.6171925213301</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F43" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L43" t="n">
-        <v>808.5948518923219</v>
+        <v>353.8973418393829</v>
       </c>
       <c r="M43" t="n">
-        <v>924.5709105292754</v>
+        <v>882.9956432510273</v>
       </c>
       <c r="N43" t="n">
-        <v>1437.099088512676</v>
+        <v>1395.523821234427</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280806</v>
+        <v>1875.680168305761</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.326552563498</v>
+        <v>1998.688983252431</v>
       </c>
       <c r="T43" t="n">
-        <v>1983.326552563498</v>
+        <v>1759.196595346576</v>
       </c>
       <c r="U43" t="n">
-        <v>1703.19121418978</v>
+        <v>1479.061256972858</v>
       </c>
       <c r="V43" t="n">
-        <v>1421.479746797809</v>
+        <v>1197.349789580886</v>
       </c>
       <c r="W43" t="n">
-        <v>1146.627342970322</v>
+        <v>922.4973857533994</v>
       </c>
       <c r="X43" t="n">
-        <v>904.063446416127</v>
+        <v>679.9334891992045</v>
       </c>
       <c r="Y43" t="n">
-        <v>677.7206781058691</v>
+        <v>679.9334891992045</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1447.154758052628</v>
+        <v>1295.280650479912</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.254028065928</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D44" t="n">
-        <v>871.0642395303546</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E44" t="n">
         <v>445.0872996782122</v>
@@ -7639,61 +7639,61 @@
         <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M44" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.003122344158</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.003122344158</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.003122344158</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.003122344158</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.003122344158</v>
+        <v>1463.458508553369</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K45" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L45" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M45" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N45" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O45" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P45" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.5068220226462</v>
+        <v>845.4008954910277</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5342589015622</v>
+        <v>673.4283323699436</v>
       </c>
       <c r="D46" t="n">
-        <v>42.75541829589048</v>
+        <v>510.1115594967143</v>
       </c>
       <c r="E46" t="n">
-        <v>42.75541829589048</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="F46" t="n">
-        <v>42.75541829589048</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G46" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J46" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K46" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L46" t="n">
-        <v>859.6023110688369</v>
+        <v>899.647127896349</v>
       </c>
       <c r="M46" t="n">
-        <v>1388.700612480482</v>
+        <v>1096.275006445851</v>
       </c>
       <c r="N46" t="n">
-        <v>1901.228790463882</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U46" t="n">
-        <v>1457.143326818623</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="V46" t="n">
-        <v>1175.431859426652</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="W46" t="n">
-        <v>900.5794555991647</v>
+        <v>1504.473529067546</v>
       </c>
       <c r="X46" t="n">
-        <v>658.0155590449698</v>
+        <v>1261.909632513351</v>
       </c>
       <c r="Y46" t="n">
-        <v>431.6727907347118</v>
+        <v>1035.566864203093</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>417.2951947219101</v>
       </c>
       <c r="N13" t="n">
-        <v>282.8953427940876</v>
+        <v>281.56864510516</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>265.0931252575134</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0931252575142</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
-        <v>45.68878933440432</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>129.2956009356067</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>134.878169571334</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219101</v>
+        <v>309.384242197833</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>129.9928201901494</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>357.9105776278328</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>417.2951947219101</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>194.2682636425308</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>206.4250513711266</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>158.5724178990222</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,7 +9804,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>475.6149430409062</v>
+        <v>7.863422885323814</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>453.4690496301064</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.6271864743976</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K27" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>215.5968634766376</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>417.6226420650402</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.73407669286667</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>433.5983958225634</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.3324725154301</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>273.606546772088</v>
       </c>
       <c r="M37" t="n">
         <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>129.9928201901494</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
-        <v>384.2751793611417</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>129.2956009356067</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>209.5100009484008</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>129.2956009356071</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>261.0326869852846</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>81.46648476014977</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23275,7 +23275,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>232.8045885334768</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>298.1119765370617</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>112.5809020101944</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S13" t="n">
-        <v>38.39108420591266</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442483</v>
@@ -23554,16 +23554,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>243.1615616842948</v>
+        <v>386.7782251237503</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603956</v>
+        <v>27.33338887466564</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>101.3215446494605</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>384.104744648196</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>43.52166515152598</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>13.94829684732912</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>90.6661229131422</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>74.02201127444988</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>62.56061139420524</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>26.98802758563394</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>52.70320952521453</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>52.83125009204471</v>
       </c>
       <c r="T23" t="n">
-        <v>195.5123885792475</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>30.26687266804947</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>192.6689818022228</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>73.55613236710892</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>302.2483674259812</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7706078622802</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>24.38574630220751</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>101.0612909314602</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>238.6699193935654</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25317,7 +25317,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.2145829222893</v>
+        <v>211.9825059553582</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>168.2058736381056</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>367.681274752646</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.6375345178902</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>64.10013810090456</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>24.42486032842456</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>285.2553935122594</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>64.59081957479947</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>15.2088063820446</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>249.1538011558924</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>271.3618039566316</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>135.172552944882</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>35.13685055501745</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>294348.4044817227</v>
+        <v>294348.4044817228</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294348.4044817227</v>
+        <v>294348.4044817229</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>294348.4044817227</v>
+        <v>294348.4044817229</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>406138.4940357255</v>
+        <v>406138.4940357254</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>294348.4044817227</v>
+        <v>294348.4044817228</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>294348.4044817229</v>
+        <v>294348.4044817228</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>294348.4044817229</v>
+        <v>294348.4044817228</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>545069.3508420008</v>
       </c>
       <c r="D2" t="n">
-        <v>545069.350842001</v>
+        <v>545069.3508420009</v>
       </c>
       <c r="E2" t="n">
-        <v>324126.1116988396</v>
+        <v>324126.1116988397</v>
       </c>
       <c r="F2" t="n">
         <v>324126.1116988397</v>
@@ -26334,28 +26334,28 @@
         <v>324126.1116988399</v>
       </c>
       <c r="I2" t="n">
+        <v>406795.357047256</v>
+      </c>
+      <c r="J2" t="n">
         <v>406795.3570472561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>406795.357047256</v>
       </c>
       <c r="K2" t="n">
         <v>406795.357047256</v>
       </c>
       <c r="L2" t="n">
-        <v>406795.357047256</v>
+        <v>406795.3570472563</v>
       </c>
       <c r="M2" t="n">
+        <v>324126.1116988397</v>
+      </c>
+      <c r="N2" t="n">
         <v>324126.1116988398</v>
       </c>
-      <c r="N2" t="n">
-        <v>324126.1116988399</v>
-      </c>
       <c r="O2" t="n">
-        <v>324126.11169884</v>
+        <v>324126.1116988398</v>
       </c>
       <c r="P2" t="n">
-        <v>324126.1116988399</v>
+        <v>324126.1116988398</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222535</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048198</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160794</v>
+        <v>79247.32527160789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>323720.8540144446</v>
       </c>
       <c r="E4" t="n">
+        <v>21842.84887867284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21842.84887867284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21842.84887867284</v>
+      </c>
+      <c r="H4" t="n">
         <v>21842.84887867285</v>
       </c>
-      <c r="F4" t="n">
-        <v>21842.84887867286</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21842.84887867285</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21842.84887867283</v>
-      </c>
       <c r="I4" t="n">
-        <v>64149.91250646629</v>
+        <v>64149.91250646631</v>
       </c>
       <c r="J4" t="n">
-        <v>64149.9125064663</v>
+        <v>64149.91250646632</v>
       </c>
       <c r="K4" t="n">
-        <v>64149.9125064663</v>
+        <v>64149.91250646631</v>
       </c>
       <c r="L4" t="n">
         <v>64149.91250646631</v>
@@ -26453,13 +26453,13 @@
         <v>21842.84887867284</v>
       </c>
       <c r="N4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867285</v>
       </c>
       <c r="O4" t="n">
-        <v>21842.84887867285</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="P4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
         <v>43269.71441650124</v>
@@ -26508,10 +26508,10 @@
         <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187720.8968275563</v>
+        <v>187699.1831860598</v>
       </c>
       <c r="C6" t="n">
-        <v>187720.8968275563</v>
+        <v>187699.1831860598</v>
       </c>
       <c r="D6" t="n">
-        <v>187720.8968275565</v>
+        <v>187699.18318606</v>
       </c>
       <c r="E6" t="n">
-        <v>-297676.1075185879</v>
+        <v>-298279.2507367769</v>
       </c>
       <c r="F6" t="n">
-        <v>259013.5484036656</v>
+        <v>258410.4051854767</v>
       </c>
       <c r="G6" t="n">
-        <v>259013.5484036657</v>
+        <v>258410.4051854768</v>
       </c>
       <c r="H6" t="n">
-        <v>259013.5484036658</v>
+        <v>258410.405185477</v>
       </c>
       <c r="I6" t="n">
-        <v>228659.9396266963</v>
+        <v>228274.3470541612</v>
       </c>
       <c r="J6" t="n">
-        <v>286216.1228071782</v>
+        <v>285830.5302346431</v>
       </c>
       <c r="K6" t="n">
-        <v>286216.1228071782</v>
+        <v>285830.5302346429</v>
       </c>
       <c r="L6" t="n">
-        <v>286216.1228071782</v>
+        <v>285830.5302346432</v>
       </c>
       <c r="M6" t="n">
-        <v>179766.2231320578</v>
+        <v>179163.0799138689</v>
       </c>
       <c r="N6" t="n">
-        <v>259013.5484036658</v>
+        <v>258410.4051854768</v>
       </c>
       <c r="O6" t="n">
-        <v>259013.5484036659</v>
+        <v>258410.4051854768</v>
       </c>
       <c r="P6" t="n">
-        <v>259013.5484036659</v>
+        <v>258410.4051854768</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="F3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="G3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="H3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="J3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="K3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="L3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="M3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="N3" t="n">
+        <v>494.293417964426</v>
+      </c>
+      <c r="O3" t="n">
         <v>494.2934179644259</v>
       </c>
-      <c r="F3" t="n">
+      <c r="P3" t="n">
         <v>494.2934179644259</v>
-      </c>
-      <c r="G3" t="n">
-        <v>494.2934179644259</v>
-      </c>
-      <c r="H3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="I3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="J3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="K3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="L3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="M3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="N3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="O3" t="n">
-        <v>494.2934179644261</v>
-      </c>
-      <c r="P3" t="n">
-        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
         <v>534.4427286986307</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.293417964426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208941</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777385</v>
+        <v>318.0018188777382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659136</v>
@@ -31776,10 +31776,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596217</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357951</v>
@@ -31837,13 +31837,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
         <v>230.8490156257444</v>
@@ -31852,19 +31852,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O12" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131455</v>
@@ -31873,7 +31873,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31931,7 +31931,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
         <v>125.9880993854245</v>
@@ -31940,7 +31940,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
         <v>40.07828270905</v>
@@ -31949,10 +31949,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
         <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
         <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357951</v>
@@ -32074,13 +32074,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
         <v>230.8490156257444</v>
@@ -32089,28 +32089,28 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O15" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K16" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
         <v>125.9880993854245</v>
@@ -32177,19 +32177,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659136</v>
@@ -32250,10 +32250,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596217</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357951</v>
@@ -32311,13 +32311,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
         <v>230.8490156257444</v>
@@ -32326,19 +32326,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O18" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131455</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,7 +32405,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
         <v>125.9880993854245</v>
@@ -32414,7 +32414,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,34 +32466,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
@@ -32502,10 +32502,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
@@ -32557,34 +32557,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32645,19 +32645,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
         <v>3.80849026956197</v>
@@ -32703,34 +32703,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
@@ -32739,10 +32739,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
@@ -32794,34 +32794,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32882,19 +32882,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
         <v>3.80849026956197</v>
@@ -32940,34 +32940,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
@@ -32976,10 +32976,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
@@ -33031,34 +33031,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33119,19 +33119,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
         <v>3.80849026956197</v>
@@ -33177,34 +33177,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
@@ -33213,10 +33213,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
@@ -33268,34 +33268,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33356,19 +33356,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
         <v>3.80849026956197</v>
@@ -33414,34 +33414,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
@@ -33505,34 +33505,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33593,19 +33593,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -33651,34 +33651,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L35" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
@@ -33687,10 +33687,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
@@ -33742,34 +33742,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33830,19 +33830,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
         <v>3.80849026956197</v>
@@ -33888,34 +33888,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L38" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R38" t="n">
         <v>124.822749411891</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
@@ -33979,34 +33979,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34067,19 +34067,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R41" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R44" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011801</v>
@@ -35418,19 +35418,19 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
         <v>89.79009951709449</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>473.4270541690286</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
         <v>246.2931322782842</v>
@@ -35512,7 +35512,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="N13" t="n">
-        <v>398.54711566431</v>
+        <v>397.2204179753824</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297613</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784337</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885251</v>
+        <v>79.83770185885254</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911598</v>
+        <v>414.3769175486732</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
         <v>255.1768339739347</v>
@@ -35743,13 +35743,13 @@
         <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3463107633947</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
         <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>161.3405622046267</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784335</v>
+        <v>179.3143442834501</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011801</v>
@@ -35892,19 +35892,19 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
         <v>89.79009951709449</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885253</v>
+        <v>79.83770185885254</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>511.3862575357979</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
         <v>255.1768339739347</v>
@@ -35983,10 +35983,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.9691469604239</v>
+        <v>247.847316531758</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986307</v>
+        <v>426.5317761745537</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702223</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
-        <v>233.4817320771495</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297613</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550234</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36211,19 +36211,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>468.5110727713156</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M22" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>309.9200365127532</v>
       </c>
       <c r="O22" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q22" t="n">
         <v>202.9212659517818</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>517.9127799376084</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>675.2778440992007</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36436,7 +36436,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4101197578748</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
@@ -36448,19 +36448,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>750.8836385195242</v>
+        <v>283.1321183639417</v>
       </c>
       <c r="M26" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>406.0879524294214</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R26" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486728</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
         <v>208.3339289115149</v>
@@ -36685,19 +36685,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>298.190731672866</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>634.6257854527128</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>604.9706389020689</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36922,19 +36922,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>422.6520624357051</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
         <v>534.9195310038328</v>
@@ -37074,25 +37074,25 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>303.0027721714846</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="O32" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>639.7932384704538</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37159,19 +37159,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550239</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37396,19 +37396,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>422.6520624357051</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>384.2070419155708</v>
       </c>
       <c r="M37" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>233.4817320771495</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K38" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664821</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37630,22 +37630,22 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>487.6920092081086</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N40" t="n">
-        <v>499.9269522313641</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>179.3143442834501</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011808</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664825</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L43" t="n">
-        <v>320.1104960918836</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>214.7193844185832</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O45" t="n">
-        <v>388.3621795382739</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K46" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>371.6331821287674</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>198.6140187368704</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
